--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -80,7 +80,7 @@
       <name val="Calibri"/>
       <sz val="14.0"/>
       <b val="true"/>
-      <color indexed="14"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43694.0</v>
+        <v>43785.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43694.0</v>
+        <v>43785.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43694.0</v>
+        <v>43785.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43694.526770833334</v>
+        <v>43785.334085648145</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43785.0</v>
+        <v>43788.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43785.0</v>
+        <v>43788.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43785.0</v>
+        <v>43788.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43785.334085648145</v>
+        <v>43788.81340277778</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43788.0</v>
+        <v>43799.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43788.0</v>
+        <v>43799.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43788.0</v>
+        <v>43799.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43788.81340277778</v>
+        <v>43799.45278935185</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43799.0</v>
+        <v>43804.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43799.0</v>
+        <v>43804.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43799.0</v>
+        <v>43804.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43799.45278935185</v>
+        <v>43804.008101851854</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43804.0</v>
+        <v>43806.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43804.0</v>
+        <v>43806.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43804.0</v>
+        <v>43806.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43804.008101851854</v>
+        <v>43806.40326388889</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/LabBook/userData.xlsx
+++ b/LabBook/userData.xlsx
@@ -151,7 +151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>43806.0</v>
+        <v>43809.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -216,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>43806.0</v>
+        <v>43809.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -239,7 +239,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>43806.0</v>
+        <v>43809.0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43806.40326388889</v>
+        <v>43809.85291666666</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
